--- a/ea_af_peaks_dataframe.xlsx
+++ b/ea_af_peaks_dataframe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reasonable/Biologi/Pop Gen/12 project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA530CA-26FA-474C-B6A8-59B841E5CA5E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7C0749-0A53-584A-971C-B2944DDB0E5E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="18700" windowHeight="11860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="-20480" windowWidth="25600" windowHeight="20480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>gene_name</t>
   </si>
@@ -80,14 +80,40 @@
   </si>
   <si>
     <t>HTR2C</t>
+  </si>
+  <si>
+    <t>pre-mRNA splicing, retinis pigmentosa</t>
+  </si>
+  <si>
+    <t>spliceosome, retinis pigmentosa</t>
+  </si>
+  <si>
+    <t>eye devel. at hypoxia</t>
+  </si>
+  <si>
+    <t>has WD repeats</t>
+  </si>
+  <si>
+    <t>intestinal iron uptake</t>
+  </si>
+  <si>
+    <t>serotonin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -115,8 +141,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E11"/>
+    <sheetView tabSelected="1" zoomScale="212" zoomScaleNormal="212" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -429,19 +459,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -476,7 +506,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -493,11 +523,11 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5">
@@ -544,7 +574,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -561,7 +591,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -595,7 +625,7 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -612,7 +642,7 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
